--- a/Code/Results/Cases/Case_0_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.600690702792047</v>
+        <v>12.26167578201206</v>
       </c>
       <c r="D2">
-        <v>3.962832942099649</v>
+        <v>6.92041971848546</v>
       </c>
       <c r="E2">
-        <v>6.517858132129684</v>
+        <v>12.51969760047459</v>
       </c>
       <c r="F2">
-        <v>34.14641953585515</v>
+        <v>43.77443302810957</v>
       </c>
       <c r="G2">
-        <v>2.06557154471821</v>
+        <v>3.706733162025666</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.369445066398336</v>
+        <v>10.33881531217994</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.220414809805088</v>
+        <v>8.904533062626106</v>
       </c>
       <c r="M2">
-        <v>31.88732374438076</v>
+        <v>28.90422148313138</v>
       </c>
       <c r="N2">
-        <v>19.07568842717184</v>
+        <v>17.59906630164805</v>
       </c>
       <c r="O2">
-        <v>26.57454695206341</v>
+        <v>34.35877857056661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.48954186454395</v>
+        <v>12.2942684492433</v>
       </c>
       <c r="D3">
-        <v>3.978939821612463</v>
+        <v>6.930697108223375</v>
       </c>
       <c r="E3">
-        <v>6.661367571123547</v>
+        <v>12.572098815751</v>
       </c>
       <c r="F3">
-        <v>32.75168811903526</v>
+        <v>43.70184458371285</v>
       </c>
       <c r="G3">
-        <v>2.075695135180396</v>
+        <v>3.710491804684676</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.481659889477091</v>
+        <v>10.37817805486542</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.243351298575784</v>
+        <v>8.916655162995491</v>
       </c>
       <c r="M3">
-        <v>29.9841877018171</v>
+        <v>28.29775905681328</v>
       </c>
       <c r="N3">
-        <v>18.30888095638375</v>
+        <v>17.3548014769141</v>
       </c>
       <c r="O3">
-        <v>25.50795425172253</v>
+        <v>34.30373234463958</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.428927397238924</v>
+        <v>12.31703086550744</v>
       </c>
       <c r="D4">
-        <v>3.989657642133861</v>
+        <v>6.937384166396216</v>
       </c>
       <c r="E4">
-        <v>6.751999970743647</v>
+        <v>12.6058539768777</v>
       </c>
       <c r="F4">
-        <v>31.90490175462729</v>
+        <v>43.66956099064571</v>
       </c>
       <c r="G4">
-        <v>2.082066851535092</v>
+        <v>3.71292084098239</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.552308194788291</v>
+        <v>10.40351957965715</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.258206912660874</v>
+        <v>8.924560622737415</v>
       </c>
       <c r="M4">
-        <v>28.75576208925161</v>
+        <v>27.92018390495219</v>
       </c>
       <c r="N4">
-        <v>17.824905331284</v>
+        <v>17.20521363899108</v>
       </c>
       <c r="O4">
-        <v>24.86059113808234</v>
+        <v>34.2792806680692</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.406084060455588</v>
+        <v>12.32699586121215</v>
       </c>
       <c r="D5">
-        <v>3.994226521515408</v>
+        <v>6.940204097326682</v>
       </c>
       <c r="E5">
-        <v>6.789574303876625</v>
+        <v>12.62000799232832</v>
       </c>
       <c r="F5">
-        <v>31.56257371884679</v>
+        <v>43.6594968564849</v>
       </c>
       <c r="G5">
-        <v>2.084704756189987</v>
+        <v>3.713941286829352</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.581548249903463</v>
+        <v>10.41414216532291</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.264455689650613</v>
+        <v>8.927898770879603</v>
       </c>
       <c r="M5">
-        <v>28.24032061571149</v>
+        <v>27.76519623204183</v>
       </c>
       <c r="N5">
-        <v>17.62463364959243</v>
+        <v>17.14442312401423</v>
       </c>
       <c r="O5">
-        <v>24.59892711183449</v>
+        <v>34.27166865970189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.402401261194822</v>
+        <v>12.32869208837576</v>
       </c>
       <c r="D6">
-        <v>3.994997148344477</v>
+        <v>6.940678081675329</v>
       </c>
       <c r="E6">
-        <v>6.795852439829031</v>
+        <v>12.62238235615892</v>
       </c>
       <c r="F6">
-        <v>31.50590673918793</v>
+        <v>43.65801245214163</v>
       </c>
       <c r="G6">
-        <v>2.085145338853536</v>
+        <v>3.714112582209747</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.586431045564923</v>
+        <v>10.4159239223041</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.265505092535498</v>
+        <v>8.928460120270813</v>
       </c>
       <c r="M6">
-        <v>28.15384276348277</v>
+        <v>27.73939841548325</v>
       </c>
       <c r="N6">
-        <v>17.59120286820984</v>
+        <v>17.13434106690744</v>
       </c>
       <c r="O6">
-        <v>24.55561521718196</v>
+        <v>34.27054677285725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.4286118868545</v>
+        <v>12.3171624700322</v>
       </c>
       <c r="D7">
-        <v>3.98971845329561</v>
+        <v>6.937421812479467</v>
       </c>
       <c r="E7">
-        <v>6.752504105620999</v>
+        <v>12.60604324792844</v>
       </c>
       <c r="F7">
-        <v>31.90027341445911</v>
+        <v>43.66941274354091</v>
       </c>
       <c r="G7">
-        <v>2.082102256899779</v>
+        <v>3.712934479049267</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.552700699093733</v>
+        <v>10.40366164115617</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.258290395366467</v>
+        <v>8.924605169603772</v>
       </c>
       <c r="M7">
-        <v>28.74887045264085</v>
+        <v>27.91809798185267</v>
       </c>
       <c r="N7">
-        <v>17.82221636938213</v>
+        <v>17.20439302593033</v>
       </c>
       <c r="O7">
-        <v>24.85705322226352</v>
+        <v>34.27916848504053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.560746894051544</v>
+        <v>12.27234142555849</v>
       </c>
       <c r="D8">
-        <v>3.968210276914314</v>
+        <v>6.923885284769137</v>
       </c>
       <c r="E8">
-        <v>6.566822494941195</v>
+        <v>12.53743812476103</v>
       </c>
       <c r="F8">
-        <v>33.66371276693437</v>
+        <v>43.74685683412237</v>
       </c>
       <c r="G8">
-        <v>2.069031203027192</v>
+        <v>3.708004052362274</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.407780514974853</v>
+        <v>10.35214471084487</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.228163429413899</v>
+        <v>8.908616978670873</v>
       </c>
       <c r="M8">
-        <v>31.24365953477762</v>
+        <v>28.69630278493509</v>
       </c>
       <c r="N8">
-        <v>18.81416849247758</v>
+        <v>17.51480387154522</v>
       </c>
       <c r="O8">
-        <v>26.20536126683201</v>
+        <v>34.3378604656446</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.882993125769726</v>
+        <v>12.20637823547111</v>
       </c>
       <c r="D9">
-        <v>3.932963137615884</v>
+        <v>6.900321090366153</v>
       </c>
       <c r="E9">
-        <v>6.222329999156402</v>
+        <v>12.41539604154928</v>
       </c>
       <c r="F9">
-        <v>37.18601646146335</v>
+        <v>43.99597661949608</v>
       </c>
       <c r="G9">
-        <v>2.044526149718985</v>
+        <v>3.699292113186764</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.136961894238767</v>
+        <v>10.26038573328713</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.175179015007263</v>
+        <v>8.880918778862746</v>
       </c>
       <c r="M9">
-        <v>35.65468594656234</v>
+        <v>30.17328737062231</v>
       </c>
       <c r="N9">
-        <v>20.64529980544732</v>
+        <v>18.12361779106923</v>
       </c>
       <c r="O9">
-        <v>28.90033976349863</v>
+        <v>34.52694010779736</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.161618512368394</v>
+        <v>12.1714269117747</v>
       </c>
       <c r="D10">
-        <v>3.911876194574294</v>
+        <v>6.884814458536052</v>
       </c>
       <c r="E10">
-        <v>5.980770743615317</v>
+        <v>12.33327772017182</v>
       </c>
       <c r="F10">
-        <v>39.80217057201073</v>
+        <v>44.23779054514355</v>
       </c>
       <c r="G10">
-        <v>2.027041530140811</v>
+        <v>3.693467399954912</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.945436233515283</v>
+        <v>10.19856381361709</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.139915813838018</v>
+        <v>8.8627765167207</v>
       </c>
       <c r="M10">
-        <v>38.59795463515863</v>
+        <v>31.21871709625103</v>
       </c>
       <c r="N10">
-        <v>21.91028105247315</v>
+        <v>18.56701910888594</v>
       </c>
       <c r="O10">
-        <v>30.90342945831753</v>
+        <v>34.71058109564893</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.298179380395823</v>
+        <v>12.15848892624992</v>
       </c>
       <c r="D11">
-        <v>3.903486872846698</v>
+        <v>6.8781498764556</v>
       </c>
       <c r="E11">
-        <v>5.873317628231609</v>
+        <v>12.29754367561165</v>
       </c>
       <c r="F11">
-        <v>40.99779983854897</v>
+        <v>44.36039167568377</v>
       </c>
       <c r="G11">
-        <v>2.019157564185277</v>
+        <v>3.690941106003895</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.859770674168225</v>
+        <v>10.17164221984987</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.124658052726225</v>
+        <v>8.854998170078082</v>
       </c>
       <c r="M11">
-        <v>39.90254857793629</v>
+        <v>31.68380379016588</v>
       </c>
       <c r="N11">
-        <v>22.46660117847962</v>
+        <v>18.76708066837963</v>
       </c>
       <c r="O11">
-        <v>31.81923770239182</v>
+        <v>34.80370778036674</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.351363373196612</v>
+        <v>12.15401763343427</v>
       </c>
       <c r="D12">
-        <v>3.900499250398345</v>
+        <v>6.87568200427477</v>
       </c>
       <c r="E12">
-        <v>5.832975354636273</v>
+        <v>12.28424427329026</v>
       </c>
       <c r="F12">
-        <v>41.45140778789121</v>
+        <v>44.40860975339569</v>
       </c>
       <c r="G12">
-        <v>2.016178135547706</v>
+        <v>3.690002090090879</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.827529500311188</v>
+        <v>10.16161961920428</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.118992127867806</v>
+        <v>8.852120634887093</v>
       </c>
       <c r="M12">
-        <v>40.41003791983984</v>
+        <v>31.85826867606979</v>
       </c>
       <c r="N12">
-        <v>22.6744063132112</v>
+        <v>18.84253765501906</v>
       </c>
       <c r="O12">
-        <v>32.16674056906711</v>
+        <v>34.84033658690053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.339842799131981</v>
+        <v>12.15496153586191</v>
       </c>
       <c r="D13">
-        <v>3.901133984621191</v>
+        <v>6.876211022561937</v>
       </c>
       <c r="E13">
-        <v>5.84164831641251</v>
+        <v>12.28709822049741</v>
       </c>
       <c r="F13">
-        <v>41.35367552038677</v>
+        <v>44.39814579157238</v>
       </c>
       <c r="G13">
-        <v>2.016819608171389</v>
+        <v>3.690203541276246</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.834464562195047</v>
+        <v>10.16377052672917</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.12020742434881</v>
+        <v>8.852737345972052</v>
       </c>
       <c r="M13">
-        <v>40.30121421277979</v>
+        <v>31.82077028506093</v>
       </c>
       <c r="N13">
-        <v>22.62978053451226</v>
+        <v>18.82630109180154</v>
       </c>
       <c r="O13">
-        <v>32.09186666702871</v>
+        <v>34.83238752547308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.302525009461185</v>
+        <v>12.1581124797222</v>
       </c>
       <c r="D14">
-        <v>3.903237184259736</v>
+        <v>6.877945724414217</v>
       </c>
       <c r="E14">
-        <v>5.869991675109261</v>
+        <v>12.29644487536601</v>
       </c>
       <c r="F14">
-        <v>41.03510075971772</v>
+        <v>44.36432282290229</v>
       </c>
       <c r="G14">
-        <v>2.018912347980904</v>
+        <v>3.690863499747191</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.857114258809212</v>
+        <v>10.17081421115895</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.124189676593192</v>
+        <v>8.854760073300064</v>
       </c>
       <c r="M14">
-        <v>39.94451356826907</v>
+        <v>31.69819105493947</v>
       </c>
       <c r="N14">
-        <v>22.48375532850861</v>
+        <v>18.77329497924772</v>
       </c>
       <c r="O14">
-        <v>31.84781228942389</v>
+        <v>34.80669401591241</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.279860266449633</v>
+        <v>12.16009832975272</v>
       </c>
       <c r="D15">
-        <v>3.904550625791369</v>
+        <v>6.879015549840449</v>
       </c>
       <c r="E15">
-        <v>5.887398090419699</v>
+        <v>12.30220019670976</v>
       </c>
       <c r="F15">
-        <v>40.84007838041063</v>
+        <v>44.34383796475911</v>
       </c>
       <c r="G15">
-        <v>2.020194873777989</v>
+        <v>3.69127003700981</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.871013372117136</v>
+        <v>10.17515105146487</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.126643463833655</v>
+        <v>8.856007893188563</v>
       </c>
       <c r="M15">
-        <v>39.72463500151685</v>
+        <v>31.62288827338979</v>
       </c>
       <c r="N15">
-        <v>22.39393516069984</v>
+        <v>18.74078597272719</v>
       </c>
       <c r="O15">
-        <v>31.6984165397762</v>
+        <v>34.79113312015333</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.152896454813591</v>
+        <v>12.17233222233489</v>
       </c>
       <c r="D16">
-        <v>3.912449993778943</v>
+        <v>6.885257829274792</v>
       </c>
       <c r="E16">
-        <v>5.987841792960086</v>
+        <v>12.3356455824181</v>
       </c>
       <c r="F16">
-        <v>39.72414704365053</v>
+        <v>44.23003015105655</v>
       </c>
       <c r="G16">
-        <v>2.027557841690787</v>
+        <v>3.693634973065602</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.951063073565258</v>
+        <v>10.2003473159748</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.140928642363447</v>
+        <v>8.863294375682278</v>
       </c>
       <c r="M16">
-        <v>38.51337309100362</v>
+        <v>31.18809892316285</v>
       </c>
       <c r="N16">
-        <v>21.87352934319582</v>
+        <v>18.55390587355626</v>
       </c>
       <c r="O16">
-        <v>30.84367386899476</v>
+        <v>34.70468674755413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.077563215471711</v>
+        <v>12.18059743093215</v>
       </c>
       <c r="D17">
-        <v>3.917614890810242</v>
+        <v>6.88918691302563</v>
       </c>
       <c r="E17">
-        <v>6.050081793020076</v>
+        <v>12.35657800510038</v>
       </c>
       <c r="F17">
-        <v>39.04098328000259</v>
+        <v>44.16342631269034</v>
       </c>
       <c r="G17">
-        <v>2.032089989178472</v>
+        <v>3.695117313025039</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.000536707232704</v>
+        <v>10.21611160511442</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.14989225607025</v>
+        <v>8.867885754671697</v>
       </c>
       <c r="M17">
-        <v>37.76492084859523</v>
+        <v>30.91857748413999</v>
       </c>
       <c r="N17">
-        <v>21.54929217756677</v>
+        <v>18.43879251187378</v>
       </c>
       <c r="O17">
-        <v>30.32050249988243</v>
+        <v>34.65410036941955</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.035153380453671</v>
+        <v>12.18562999324608</v>
       </c>
       <c r="D18">
-        <v>3.920697741597597</v>
+        <v>6.891483484572265</v>
       </c>
       <c r="E18">
-        <v>6.08610963043975</v>
+        <v>12.36877050583476</v>
       </c>
       <c r="F18">
-        <v>38.64855680950966</v>
+        <v>44.12630479168168</v>
       </c>
       <c r="G18">
-        <v>2.034703602768974</v>
+        <v>3.695981536907263</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.029130764272669</v>
+        <v>10.22529194342613</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.155121699913194</v>
+        <v>8.870571289441608</v>
       </c>
       <c r="M18">
-        <v>37.32835766193804</v>
+        <v>30.76257708796989</v>
       </c>
       <c r="N18">
-        <v>21.36100436498521</v>
+        <v>18.37243139514892</v>
       </c>
       <c r="O18">
-        <v>30.02001329406899</v>
+        <v>34.62590787649101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.020950352964523</v>
+        <v>12.18738171942732</v>
       </c>
       <c r="D19">
-        <v>3.921760350532406</v>
+        <v>6.892267366169111</v>
       </c>
       <c r="E19">
-        <v>6.098347476066643</v>
+        <v>12.3729249363883</v>
       </c>
       <c r="F19">
-        <v>38.51577567979036</v>
+        <v>44.11394055311846</v>
       </c>
       <c r="G19">
-        <v>2.035589816498704</v>
+        <v>3.696276147492451</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.038836302366811</v>
+        <v>10.22841970251824</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.156905002068195</v>
+        <v>8.871488250929064</v>
       </c>
       <c r="M19">
-        <v>37.17950086677659</v>
+        <v>30.70959453292465</v>
       </c>
       <c r="N19">
-        <v>21.29694878752618</v>
+        <v>18.34993877232939</v>
       </c>
       <c r="O19">
-        <v>29.91834564030197</v>
+        <v>34.61651797009494</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.085486943110153</v>
+        <v>12.17968873178835</v>
       </c>
       <c r="D20">
-        <v>3.917053363829296</v>
+        <v>6.888764861553937</v>
       </c>
       <c r="E20">
-        <v>6.043432557175456</v>
+        <v>12.3543339133941</v>
       </c>
       <c r="F20">
-        <v>39.11365423133844</v>
+        <v>44.17039366542118</v>
       </c>
       <c r="G20">
-        <v>2.031606853583426</v>
+        <v>3.694958313447073</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.995255943157508</v>
+        <v>10.21442176598612</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.148930431028322</v>
+        <v>8.867392370970832</v>
       </c>
       <c r="M20">
-        <v>37.84522318176907</v>
+        <v>30.94737089084858</v>
       </c>
       <c r="N20">
-        <v>21.58399444780678</v>
+        <v>18.45106263193497</v>
       </c>
       <c r="O20">
-        <v>30.37615089117304</v>
+        <v>34.65939197309606</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.313445713182368</v>
+        <v>12.15717533752953</v>
       </c>
       <c r="D21">
-        <v>3.902614145060733</v>
+        <v>6.877434685527987</v>
       </c>
       <c r="E21">
-        <v>5.861657105060402</v>
+        <v>12.2936932389809</v>
       </c>
       <c r="F21">
-        <v>41.12864992470256</v>
+        <v>44.37420899677127</v>
       </c>
       <c r="G21">
-        <v>2.018297529382331</v>
+        <v>3.690669176144292</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.850456195214875</v>
+        <v>10.1687406476162</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.123016963346378</v>
+        <v>8.854164107328625</v>
       </c>
       <c r="M21">
-        <v>40.04957431690428</v>
+        <v>31.73424152780891</v>
       </c>
       <c r="N21">
-        <v>22.52672489361148</v>
+        <v>18.78887286568135</v>
       </c>
       <c r="O21">
-        <v>31.91947707219511</v>
+        <v>34.81420394034361</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.471037985488845</v>
+        <v>12.14495740102105</v>
       </c>
       <c r="D22">
-        <v>3.894289864867759</v>
+        <v>6.870355292949995</v>
       </c>
       <c r="E22">
-        <v>5.744885223023668</v>
+        <v>12.2554146765045</v>
       </c>
       <c r="F22">
-        <v>42.45061218127162</v>
+        <v>44.51784609461532</v>
       </c>
       <c r="G22">
-        <v>2.009632209010451</v>
+        <v>3.687968728022623</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.756973407144314</v>
+        <v>10.13988773161819</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.106732634471061</v>
+        <v>8.845914633257493</v>
       </c>
       <c r="M22">
-        <v>41.50700123766018</v>
+        <v>32.23880963547492</v>
       </c>
       <c r="N22">
-        <v>23.12614078837737</v>
+        <v>19.00786254089702</v>
       </c>
       <c r="O22">
-        <v>32.93232230601166</v>
+        <v>34.92332305638427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.386119132853967</v>
+        <v>12.15124928742453</v>
       </c>
       <c r="D23">
-        <v>3.898624792031324</v>
+        <v>6.874103958574318</v>
       </c>
       <c r="E23">
-        <v>5.807022873691917</v>
+        <v>12.27572111534361</v>
       </c>
       <c r="F23">
-        <v>41.74455045691345</v>
+        <v>44.4402371108501</v>
       </c>
       <c r="G23">
-        <v>2.014255475521984</v>
+        <v>3.689400641703994</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.806765143266263</v>
+        <v>10.15519560886021</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.115364534744192</v>
+        <v>8.850281400936039</v>
       </c>
       <c r="M23">
-        <v>40.7347808171629</v>
+        <v>31.97044492750812</v>
       </c>
       <c r="N23">
-        <v>22.80778124414795</v>
+        <v>18.89116833288719</v>
       </c>
       <c r="O23">
-        <v>32.39132911167309</v>
+        <v>34.8643630584578</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.081901826256015</v>
+        <v>12.18009868024032</v>
       </c>
       <c r="D24">
-        <v>3.91730687788916</v>
+        <v>6.888955553624579</v>
       </c>
       <c r="E24">
-        <v>6.046437912665563</v>
+        <v>12.3553479744865</v>
       </c>
       <c r="F24">
-        <v>39.08079865834076</v>
+        <v>44.16724007953633</v>
       </c>
       <c r="G24">
-        <v>2.031825253905086</v>
+        <v>3.695030159747187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.997642905369611</v>
+        <v>10.21518537700309</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.149365034897866</v>
+        <v>8.867615286772839</v>
       </c>
       <c r="M24">
-        <v>37.80893802375765</v>
+        <v>30.93435664763202</v>
       </c>
       <c r="N24">
-        <v>21.56831139713289</v>
+        <v>18.44551586913838</v>
       </c>
       <c r="O24">
-        <v>30.35099135581934</v>
+        <v>34.65699686474304</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.788702704171591</v>
+        <v>12.22186006944816</v>
       </c>
       <c r="D25">
-        <v>3.941701513503014</v>
+        <v>6.906377876489529</v>
       </c>
       <c r="E25">
-        <v>6.313470525141765</v>
+        <v>12.44708150619202</v>
       </c>
       <c r="F25">
-        <v>36.2276551746172</v>
+        <v>43.9182110909229</v>
       </c>
       <c r="G25">
-        <v>2.051051048892371</v>
+        <v>3.701547260687791</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.208866669607142</v>
+        <v>10.28422275110018</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.188865422564804</v>
+        <v>8.888022734164121</v>
       </c>
       <c r="M25">
-        <v>34.51351851223974</v>
+        <v>29.78002504549185</v>
       </c>
       <c r="N25">
-        <v>20.1633728528758</v>
+        <v>17.95932074830214</v>
       </c>
       <c r="O25">
-        <v>28.16684996046454</v>
+        <v>34.46789852867372</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_108/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.26167578201206</v>
+        <v>7.600690702791929</v>
       </c>
       <c r="D2">
-        <v>6.92041971848546</v>
+        <v>3.962832942099713</v>
       </c>
       <c r="E2">
-        <v>12.51969760047459</v>
+        <v>6.517858132129681</v>
       </c>
       <c r="F2">
-        <v>43.77443302810957</v>
+        <v>34.14641953585505</v>
       </c>
       <c r="G2">
-        <v>3.706733162025666</v>
+        <v>2.065571544718473</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.33881531217994</v>
+        <v>5.369445066398304</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.904533062626106</v>
+        <v>5.220414809805118</v>
       </c>
       <c r="M2">
-        <v>28.90422148313138</v>
+        <v>31.88732374438074</v>
       </c>
       <c r="N2">
-        <v>17.59906630164805</v>
+        <v>19.07568842717181</v>
       </c>
       <c r="O2">
-        <v>34.35877857056661</v>
+        <v>26.57454695206333</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.2942684492433</v>
+        <v>7.489541864543877</v>
       </c>
       <c r="D3">
-        <v>6.930697108223375</v>
+        <v>3.978939821612328</v>
       </c>
       <c r="E3">
-        <v>12.572098815751</v>
+        <v>6.661367571123479</v>
       </c>
       <c r="F3">
-        <v>43.70184458371285</v>
+        <v>32.75168811903527</v>
       </c>
       <c r="G3">
-        <v>3.710491804684676</v>
+        <v>2.075695135180394</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.37817805486542</v>
+        <v>5.48165988947709</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.916655162995491</v>
+        <v>5.243351298575753</v>
       </c>
       <c r="M3">
-        <v>28.29775905681328</v>
+        <v>29.98418770181708</v>
       </c>
       <c r="N3">
-        <v>17.3548014769141</v>
+        <v>18.30888095638377</v>
       </c>
       <c r="O3">
-        <v>34.30373234463958</v>
+        <v>25.50795425172257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.31703086550744</v>
+        <v>7.428927397238989</v>
       </c>
       <c r="D4">
-        <v>6.937384166396216</v>
+        <v>3.989657642133928</v>
       </c>
       <c r="E4">
-        <v>12.6058539768777</v>
+        <v>6.75199997074358</v>
       </c>
       <c r="F4">
-        <v>43.66956099064571</v>
+        <v>31.90490175462731</v>
       </c>
       <c r="G4">
-        <v>3.71292084098239</v>
+        <v>2.082066851535092</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.40351957965715</v>
+        <v>5.552308194788258</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.924560622737415</v>
+        <v>5.258206912660808</v>
       </c>
       <c r="M4">
-        <v>27.92018390495219</v>
+        <v>28.7557620892516</v>
       </c>
       <c r="N4">
-        <v>17.20521363899108</v>
+        <v>17.824905331284</v>
       </c>
       <c r="O4">
-        <v>34.2792806680692</v>
+        <v>24.86059113808237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.32699586121215</v>
+        <v>7.406084060455408</v>
       </c>
       <c r="D5">
-        <v>6.940204097326682</v>
+        <v>3.994226521515275</v>
       </c>
       <c r="E5">
-        <v>12.62000799232832</v>
+        <v>6.789574303876428</v>
       </c>
       <c r="F5">
-        <v>43.6594968564849</v>
+        <v>31.5625737188467</v>
       </c>
       <c r="G5">
-        <v>3.713941286829352</v>
+        <v>2.084704756189718</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.41414216532291</v>
+        <v>5.581548249903364</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.927898770879603</v>
+        <v>5.264455689650513</v>
       </c>
       <c r="M5">
-        <v>27.76519623204183</v>
+        <v>28.24032061571146</v>
       </c>
       <c r="N5">
-        <v>17.14442312401423</v>
+        <v>17.62463364959243</v>
       </c>
       <c r="O5">
-        <v>34.27166865970189</v>
+        <v>24.59892711183446</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.32869208837576</v>
+        <v>7.40240126119481</v>
       </c>
       <c r="D6">
-        <v>6.940678081675329</v>
+        <v>3.994997148344612</v>
       </c>
       <c r="E6">
-        <v>12.62238235615892</v>
+        <v>6.795852439829093</v>
       </c>
       <c r="F6">
-        <v>43.65801245214163</v>
+        <v>31.50590673918793</v>
       </c>
       <c r="G6">
-        <v>3.714112582209747</v>
+        <v>2.085145338853668</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.4159239223041</v>
+        <v>5.586431045564921</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.928460120270813</v>
+        <v>5.265505092535562</v>
       </c>
       <c r="M6">
-        <v>27.73939841548325</v>
+        <v>28.15384276348276</v>
       </c>
       <c r="N6">
-        <v>17.13434106690744</v>
+        <v>17.59120286820982</v>
       </c>
       <c r="O6">
-        <v>34.27054677285725</v>
+        <v>24.55561521718195</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.3171624700322</v>
+        <v>7.428611886854315</v>
       </c>
       <c r="D7">
-        <v>6.937421812479467</v>
+        <v>3.989718453295341</v>
       </c>
       <c r="E7">
-        <v>12.60604324792844</v>
+        <v>6.752504105620933</v>
       </c>
       <c r="F7">
-        <v>43.66941274354091</v>
+        <v>31.90027341445915</v>
       </c>
       <c r="G7">
-        <v>3.712934479049267</v>
+        <v>2.082102256899512</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.40366164115617</v>
+        <v>5.552700699093833</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.924605169603772</v>
+        <v>5.258290395366531</v>
       </c>
       <c r="M7">
-        <v>27.91809798185267</v>
+        <v>28.74887045264087</v>
       </c>
       <c r="N7">
-        <v>17.20439302593033</v>
+        <v>17.82221636938213</v>
       </c>
       <c r="O7">
-        <v>34.27916848504053</v>
+        <v>24.85705322226359</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.27234142555849</v>
+        <v>7.560746894051551</v>
       </c>
       <c r="D8">
-        <v>6.923885284769137</v>
+        <v>3.968210276914047</v>
       </c>
       <c r="E8">
-        <v>12.53743812476103</v>
+        <v>6.566822494941063</v>
       </c>
       <c r="F8">
-        <v>43.74685683412237</v>
+        <v>33.66371276693418</v>
       </c>
       <c r="G8">
-        <v>3.708004052362274</v>
+        <v>2.069031203027191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.35214471084487</v>
+        <v>5.407780514974917</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.908616978670873</v>
+        <v>5.22816342941377</v>
       </c>
       <c r="M8">
-        <v>28.69630278493509</v>
+        <v>31.24365953477761</v>
       </c>
       <c r="N8">
-        <v>17.51480387154522</v>
+        <v>18.81416849247758</v>
       </c>
       <c r="O8">
-        <v>34.3378604656446</v>
+        <v>26.20536126683191</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.20637823547111</v>
+        <v>7.882993125769812</v>
       </c>
       <c r="D9">
-        <v>6.900321090366153</v>
+        <v>3.932963137616152</v>
       </c>
       <c r="E9">
-        <v>12.41539604154928</v>
+        <v>6.22232999915647</v>
       </c>
       <c r="F9">
-        <v>43.99597661949608</v>
+        <v>37.18601646146343</v>
       </c>
       <c r="G9">
-        <v>3.699292113186764</v>
+        <v>2.044526149719118</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.26038573328713</v>
+        <v>5.136961894238701</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.880918778862746</v>
+        <v>5.175179015007263</v>
       </c>
       <c r="M9">
-        <v>30.17328737062231</v>
+        <v>35.65468594656237</v>
       </c>
       <c r="N9">
-        <v>18.12361779106923</v>
+        <v>20.64529980544732</v>
       </c>
       <c r="O9">
-        <v>34.52694010779736</v>
+        <v>28.90033976349867</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.1714269117747</v>
+        <v>8.161618512368632</v>
       </c>
       <c r="D10">
-        <v>6.884814458536052</v>
+        <v>3.911876194574563</v>
       </c>
       <c r="E10">
-        <v>12.33327772017182</v>
+        <v>5.980770743615382</v>
       </c>
       <c r="F10">
-        <v>44.23779054514355</v>
+        <v>39.80217057201078</v>
       </c>
       <c r="G10">
-        <v>3.693467399954912</v>
+        <v>2.027041530140944</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.19856381361709</v>
+        <v>4.945436233515223</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.8627765167207</v>
+        <v>5.139915813837922</v>
       </c>
       <c r="M10">
-        <v>31.21871709625103</v>
+        <v>38.59795463515864</v>
       </c>
       <c r="N10">
-        <v>18.56701910888594</v>
+        <v>21.91028105247315</v>
       </c>
       <c r="O10">
-        <v>34.71058109564893</v>
+        <v>30.90342945831757</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.15848892624992</v>
+        <v>8.298179380395808</v>
       </c>
       <c r="D11">
-        <v>6.8781498764556</v>
+        <v>3.90348687284663</v>
       </c>
       <c r="E11">
-        <v>12.29754367561165</v>
+        <v>5.873317628231671</v>
       </c>
       <c r="F11">
-        <v>44.36039167568377</v>
+        <v>40.99779983854898</v>
       </c>
       <c r="G11">
-        <v>3.690941106003895</v>
+        <v>2.019157564185148</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.17164221984987</v>
+        <v>4.859770674168253</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.854998170078082</v>
+        <v>5.124658052726226</v>
       </c>
       <c r="M11">
-        <v>31.68380379016588</v>
+        <v>39.90254857793629</v>
       </c>
       <c r="N11">
-        <v>18.76708066837963</v>
+        <v>22.46660117847962</v>
       </c>
       <c r="O11">
-        <v>34.80370778036674</v>
+        <v>31.81923770239182</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.15401763343427</v>
+        <v>8.351363373196659</v>
       </c>
       <c r="D12">
-        <v>6.87568200427477</v>
+        <v>3.900499250398346</v>
       </c>
       <c r="E12">
-        <v>12.28424427329026</v>
+        <v>5.832975354636277</v>
       </c>
       <c r="F12">
-        <v>44.40860975339569</v>
+        <v>41.45140778789121</v>
       </c>
       <c r="G12">
-        <v>3.690002090090879</v>
+        <v>2.016178135547706</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.16161961920428</v>
+        <v>4.827529500311189</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.852120634887093</v>
+        <v>5.118992127867771</v>
       </c>
       <c r="M12">
-        <v>31.85826867606979</v>
+        <v>40.41003791983984</v>
       </c>
       <c r="N12">
-        <v>18.84253765501906</v>
+        <v>22.67440631321119</v>
       </c>
       <c r="O12">
-        <v>34.84033658690053</v>
+        <v>32.1667405690671</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.15496153586191</v>
+        <v>8.339842799131965</v>
       </c>
       <c r="D13">
-        <v>6.876211022561937</v>
+        <v>3.901133984621123</v>
       </c>
       <c r="E13">
-        <v>12.28709822049741</v>
+        <v>5.841648316412573</v>
       </c>
       <c r="F13">
-        <v>44.39814579157238</v>
+        <v>41.35367552038674</v>
       </c>
       <c r="G13">
-        <v>3.690203541276246</v>
+        <v>2.016819608171248</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.16377052672917</v>
+        <v>4.834464562195076</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.852737345972052</v>
+        <v>5.120207424348843</v>
       </c>
       <c r="M13">
-        <v>31.82077028506093</v>
+        <v>40.30121421277978</v>
       </c>
       <c r="N13">
-        <v>18.82630109180154</v>
+        <v>22.62978053451227</v>
       </c>
       <c r="O13">
-        <v>34.83238752547308</v>
+        <v>32.0918666670287</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.1581124797222</v>
+        <v>8.302525009461197</v>
       </c>
       <c r="D14">
-        <v>6.877945724414217</v>
+        <v>3.903237184259672</v>
       </c>
       <c r="E14">
-        <v>12.29644487536601</v>
+        <v>5.869991675109262</v>
       </c>
       <c r="F14">
-        <v>44.36432282290229</v>
+        <v>41.03510075971769</v>
       </c>
       <c r="G14">
-        <v>3.690863499747191</v>
+        <v>2.01891234798064</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.17081421115895</v>
+        <v>4.857114258809275</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.854760073300064</v>
+        <v>5.124189676593225</v>
       </c>
       <c r="M14">
-        <v>31.69819105493947</v>
+        <v>39.94451356826904</v>
       </c>
       <c r="N14">
-        <v>18.77329497924772</v>
+        <v>22.4837553285086</v>
       </c>
       <c r="O14">
-        <v>34.80669401591241</v>
+        <v>31.84781228942385</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.16009832975272</v>
+        <v>8.279860266449507</v>
       </c>
       <c r="D15">
-        <v>6.879015549840449</v>
+        <v>3.904550625791302</v>
       </c>
       <c r="E15">
-        <v>12.30220019670976</v>
+        <v>5.887398090419567</v>
       </c>
       <c r="F15">
-        <v>44.34383796475911</v>
+        <v>40.84007838041065</v>
       </c>
       <c r="G15">
-        <v>3.69127003700981</v>
+        <v>2.020194873777991</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.17515105146487</v>
+        <v>4.871013372117067</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.856007893188563</v>
+        <v>5.126643463833625</v>
       </c>
       <c r="M15">
-        <v>31.62288827338979</v>
+        <v>39.72463500151683</v>
       </c>
       <c r="N15">
-        <v>18.74078597272719</v>
+        <v>22.39393516069984</v>
       </c>
       <c r="O15">
-        <v>34.79113312015333</v>
+        <v>31.69841653977621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.17233222233489</v>
+        <v>8.152896454813638</v>
       </c>
       <c r="D16">
-        <v>6.885257829274792</v>
+        <v>3.912449993778942</v>
       </c>
       <c r="E16">
-        <v>12.3356455824181</v>
+        <v>5.987841792960214</v>
       </c>
       <c r="F16">
-        <v>44.23003015105655</v>
+        <v>39.72414704365049</v>
       </c>
       <c r="G16">
-        <v>3.693634973065602</v>
+        <v>2.027557841690653</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.2003473159748</v>
+        <v>4.951063073565322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.863294375682278</v>
+        <v>5.140928642363512</v>
       </c>
       <c r="M16">
-        <v>31.18809892316285</v>
+        <v>38.51337309100366</v>
       </c>
       <c r="N16">
-        <v>18.55390587355626</v>
+        <v>21.87352934319583</v>
       </c>
       <c r="O16">
-        <v>34.70468674755413</v>
+        <v>30.84367386899473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.18059743093215</v>
+        <v>8.077563215471661</v>
       </c>
       <c r="D17">
-        <v>6.88918691302563</v>
+        <v>3.917614890810174</v>
       </c>
       <c r="E17">
-        <v>12.35657800510038</v>
+        <v>6.050081793020141</v>
       </c>
       <c r="F17">
-        <v>44.16342631269034</v>
+        <v>39.04098328000256</v>
       </c>
       <c r="G17">
-        <v>3.695117313025039</v>
+        <v>2.032089989178741</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.21611160511442</v>
+        <v>5.000536707232701</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.867885754671697</v>
+        <v>5.14989225607032</v>
       </c>
       <c r="M17">
-        <v>30.91857748413999</v>
+        <v>37.76492084859521</v>
       </c>
       <c r="N17">
-        <v>18.43879251187378</v>
+        <v>21.54929217756679</v>
       </c>
       <c r="O17">
-        <v>34.65410036941955</v>
+        <v>30.32050249988242</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.18562999324608</v>
+        <v>8.035153380453659</v>
       </c>
       <c r="D18">
-        <v>6.891483484572265</v>
+        <v>3.920697741597598</v>
       </c>
       <c r="E18">
-        <v>12.36877050583476</v>
+        <v>6.086109630439815</v>
       </c>
       <c r="F18">
-        <v>44.12630479168168</v>
+        <v>38.64855680950973</v>
       </c>
       <c r="G18">
-        <v>3.695981536907263</v>
+        <v>2.034703602769109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.22529194342613</v>
+        <v>5.02913076427267</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.870571289441608</v>
+        <v>5.155121699913225</v>
       </c>
       <c r="M18">
-        <v>30.76257708796989</v>
+        <v>37.32835766193804</v>
       </c>
       <c r="N18">
-        <v>18.37243139514892</v>
+        <v>21.36100436498516</v>
       </c>
       <c r="O18">
-        <v>34.62590787649101</v>
+        <v>30.02001329406904</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.18738171942732</v>
+        <v>8.020950352964549</v>
       </c>
       <c r="D19">
-        <v>6.892267366169111</v>
+        <v>3.92176035053254</v>
       </c>
       <c r="E19">
-        <v>12.3729249363883</v>
+        <v>6.098347476066705</v>
       </c>
       <c r="F19">
-        <v>44.11394055311846</v>
+        <v>38.51577567979035</v>
       </c>
       <c r="G19">
-        <v>3.696276147492451</v>
+        <v>2.035589816498841</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.22841970251824</v>
+        <v>5.038836302366843</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.871488250929064</v>
+        <v>5.156905002068263</v>
       </c>
       <c r="M19">
-        <v>30.70959453292465</v>
+        <v>37.17950086677656</v>
       </c>
       <c r="N19">
-        <v>18.34993877232939</v>
+        <v>21.29694878752619</v>
       </c>
       <c r="O19">
-        <v>34.61651797009494</v>
+        <v>29.91834564030194</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.17968873178835</v>
+        <v>8.085486943110059</v>
       </c>
       <c r="D20">
-        <v>6.888764861553937</v>
+        <v>3.917053363829364</v>
       </c>
       <c r="E20">
-        <v>12.3543339133941</v>
+        <v>6.043432557175523</v>
       </c>
       <c r="F20">
-        <v>44.17039366542118</v>
+        <v>39.11365423133841</v>
       </c>
       <c r="G20">
-        <v>3.694958313447073</v>
+        <v>2.031606853583422</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.21442176598612</v>
+        <v>4.995255943157543</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.867392370970832</v>
+        <v>5.148930431028421</v>
       </c>
       <c r="M20">
-        <v>30.94737089084858</v>
+        <v>37.84522318176911</v>
       </c>
       <c r="N20">
-        <v>18.45106263193497</v>
+        <v>21.58399444780682</v>
       </c>
       <c r="O20">
-        <v>34.65939197309606</v>
+        <v>30.37615089117303</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.15717533752953</v>
+        <v>8.313445713182455</v>
       </c>
       <c r="D21">
-        <v>6.877434685527987</v>
+        <v>3.902614145060667</v>
       </c>
       <c r="E21">
-        <v>12.2936932389809</v>
+        <v>5.861657105060412</v>
       </c>
       <c r="F21">
-        <v>44.37420899677127</v>
+        <v>41.12864992470253</v>
       </c>
       <c r="G21">
-        <v>3.690669176144292</v>
+        <v>2.018297529382335</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.1687406476162</v>
+        <v>4.850456195214877</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.854164107328625</v>
+        <v>5.123016963346346</v>
       </c>
       <c r="M21">
-        <v>31.73424152780891</v>
+        <v>40.04957431690431</v>
       </c>
       <c r="N21">
-        <v>18.78887286568135</v>
+        <v>22.5267248936115</v>
       </c>
       <c r="O21">
-        <v>34.81420394034361</v>
+        <v>31.9194770721951</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.14495740102105</v>
+        <v>8.471037985488763</v>
       </c>
       <c r="D22">
-        <v>6.870355292949995</v>
+        <v>3.894289864867558</v>
       </c>
       <c r="E22">
-        <v>12.2554146765045</v>
+        <v>5.744885223023473</v>
       </c>
       <c r="F22">
-        <v>44.51784609461532</v>
+        <v>42.45061218127162</v>
       </c>
       <c r="G22">
-        <v>3.687968728022623</v>
+        <v>2.009632209010454</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.13988773161819</v>
+        <v>4.756973407144284</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.845914633257493</v>
+        <v>5.106732634470965</v>
       </c>
       <c r="M22">
-        <v>32.23880963547492</v>
+        <v>41.50700123766016</v>
       </c>
       <c r="N22">
-        <v>19.00786254089702</v>
+        <v>23.12614078837735</v>
       </c>
       <c r="O22">
-        <v>34.92332305638427</v>
+        <v>32.93232230601166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.15124928742453</v>
+        <v>8.386119132853901</v>
       </c>
       <c r="D23">
-        <v>6.874103958574318</v>
+        <v>3.89862479203139</v>
       </c>
       <c r="E23">
-        <v>12.27572111534361</v>
+        <v>5.807022873691977</v>
       </c>
       <c r="F23">
-        <v>44.4402371108501</v>
+        <v>41.74455045691349</v>
       </c>
       <c r="G23">
-        <v>3.689400641703994</v>
+        <v>2.014255475521981</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.15519560886021</v>
+        <v>4.806765143266258</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.850281400936039</v>
+        <v>5.115364534744256</v>
       </c>
       <c r="M23">
-        <v>31.97044492750812</v>
+        <v>40.73478081716295</v>
       </c>
       <c r="N23">
-        <v>18.89116833288719</v>
+        <v>22.80778124414793</v>
       </c>
       <c r="O23">
-        <v>34.8643630584578</v>
+        <v>32.39132911167311</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.18009868024032</v>
+        <v>8.081901826255953</v>
       </c>
       <c r="D24">
-        <v>6.888955553624579</v>
+        <v>3.917306877889227</v>
       </c>
       <c r="E24">
-        <v>12.3553479744865</v>
+        <v>6.046437912665628</v>
       </c>
       <c r="F24">
-        <v>44.16724007953633</v>
+        <v>39.08079865834074</v>
       </c>
       <c r="G24">
-        <v>3.695030159747187</v>
+        <v>2.031825253905217</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.21518537700309</v>
+        <v>4.997642905369676</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.867615286772839</v>
+        <v>5.149365034898</v>
       </c>
       <c r="M24">
-        <v>30.93435664763202</v>
+        <v>37.80893802375764</v>
       </c>
       <c r="N24">
-        <v>18.44551586913838</v>
+        <v>21.5683113971329</v>
       </c>
       <c r="O24">
-        <v>34.65699686474304</v>
+        <v>30.35099135581932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.22186006944816</v>
+        <v>7.78870270417153</v>
       </c>
       <c r="D25">
-        <v>6.906377876489529</v>
+        <v>3.941701513502746</v>
       </c>
       <c r="E25">
-        <v>12.44708150619202</v>
+        <v>6.3134705251417</v>
       </c>
       <c r="F25">
-        <v>43.9182110909229</v>
+        <v>36.22765517461724</v>
       </c>
       <c r="G25">
-        <v>3.701547260687791</v>
+        <v>2.051051048892106</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.28422275110018</v>
+        <v>5.208866669607175</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.888022734164121</v>
+        <v>5.188865422564834</v>
       </c>
       <c r="M25">
-        <v>29.78002504549185</v>
+        <v>34.51351851223978</v>
       </c>
       <c r="N25">
-        <v>17.95932074830214</v>
+        <v>20.16337285287577</v>
       </c>
       <c r="O25">
-        <v>34.46789852867372</v>
+        <v>28.16684996046461</v>
       </c>
     </row>
   </sheetData>
